--- a/Backend/Backend/src/main/resources/excel/TalkVillageQuestions.xlsx
+++ b/Backend/Backend/src/main/resources/excel/TalkVillageQuestions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leeyonghyeon\OneDrive\Desktop\TalkVillage\Backend\Backend\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13934BE6-26F4-47B7-9CE3-D0450E70ABDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BD4254-8FB8-4516-813A-5387CA752C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="765" xr2:uid="{6FCC2D09-C645-440C-BF74-9F838DBFDCB8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="765" activeTab="3" xr2:uid="{6FCC2D09-C645-440C-BF74-9F838DBFDCB8}"/>
   </bookViews>
   <sheets>
     <sheet name="elementary" sheetId="1" r:id="rId1"/>
@@ -2146,16 +2146,10 @@
     <t>tower,forest,apple</t>
   </si>
   <si>
-    <t>cat,polise,tiger</t>
-  </si>
-  <si>
     <t>forest</t>
   </si>
   <si>
     <t>tower</t>
-  </si>
-  <si>
-    <t>polise</t>
   </si>
   <si>
     <t>word</t>
@@ -3785,10 +3779,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4301,6 +4291,18 @@
   </si>
   <si>
     <t>300-0108-10</t>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat,police,tiger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>police</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4686,8 +4688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91C2FBA-62D5-4D29-8A56-B1FE50D063CB}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4718,78 +4720,78 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D2" t="s">
         <v>587</v>
       </c>
       <c r="E2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D3" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="E3" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D4" t="s">
         <v>587</v>
       </c>
       <c r="E4" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B5" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D5" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E5" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C6" t="s">
         <v>344</v>
@@ -4798,83 +4800,83 @@
         <v>587</v>
       </c>
       <c r="E6" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C7" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D7" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="E7" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B8" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C8" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D8" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="E8" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B9" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C9" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D9" t="s">
         <v>587</v>
       </c>
       <c r="E9" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B10" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C10" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="D10" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E10" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C11" t="s">
         <v>277</v>
@@ -4883,117 +4885,117 @@
         <v>587</v>
       </c>
       <c r="E11" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B12" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C12" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D12" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="E12" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B13" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C13" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D13" t="s">
         <v>587</v>
       </c>
       <c r="E13" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B14" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C14" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D14" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="E14" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B15" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C15" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D15" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="E15" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B16" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C16" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D16" t="s">
         <v>587</v>
       </c>
       <c r="E16" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B17" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C17" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D17" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E17" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B18" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C18" t="s">
         <v>329</v>
@@ -5002,474 +5004,474 @@
         <v>587</v>
       </c>
       <c r="E18" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B19" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C19" t="s">
         <v>369</v>
       </c>
       <c r="D19" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="E19" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B20" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C20" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D20" t="s">
         <v>587</v>
       </c>
       <c r="E20" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B21" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C21" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D21" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E21" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B22" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C22" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D22" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E22" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B23" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C23" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D23" t="s">
         <v>587</v>
       </c>
       <c r="E23" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B24" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C24" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D24" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="E24" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B25" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C25" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="D25" t="s">
         <v>587</v>
       </c>
       <c r="E25" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B26" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C26" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D26" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="E26" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B27" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C27" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D27" t="s">
         <v>587</v>
       </c>
       <c r="E27" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B28" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C28" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D28" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E28" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B29" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C29" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D29" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="E29" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B30" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C30" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D30" t="s">
         <v>587</v>
       </c>
       <c r="E30" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B31" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C31" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D31" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="E31" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B32" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C32" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D32" t="s">
         <v>587</v>
       </c>
       <c r="E32" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B33" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C33" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D33" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="E33" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B34" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C34" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D34" t="s">
         <v>587</v>
       </c>
       <c r="E34" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B35" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C35" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D35" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="E35" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B36" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C36" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D36" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="E36" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B37" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C37" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D37" t="s">
         <v>587</v>
       </c>
       <c r="E37" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B38" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C38" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D38" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E38" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B39" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C39" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D39" t="s">
         <v>587</v>
       </c>
       <c r="E39" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B40" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C40" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D40" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="E40" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B41" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C41" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D41" t="s">
         <v>587</v>
       </c>
       <c r="E41" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B42" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C42" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D42" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="E42" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B43" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C43" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D43" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="E43" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="B44" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C44" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D44" t="s">
         <v>587</v>
       </c>
       <c r="E44" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B45" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C45" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D45" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="E45" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B46" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C46" t="s">
         <v>297</v>
@@ -5478,32 +5480,32 @@
         <v>587</v>
       </c>
       <c r="E46" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B47" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C47" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="D47" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="E47" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B48" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C48" t="s">
         <v>249</v>
@@ -5512,369 +5514,369 @@
         <v>587</v>
       </c>
       <c r="E48" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B49" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C49" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D49" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E49" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B50" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C50" t="s">
         <v>292</v>
       </c>
       <c r="D50" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="E50" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B51" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C51" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="D51" t="s">
         <v>587</v>
       </c>
       <c r="E51" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B52" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C52" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D52" t="s">
         <v>585</v>
       </c>
       <c r="E52" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B53" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="C53" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="E53" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="B54" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C54" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="E54" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B55" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="C55" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="E55" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B56" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C56" t="s">
-        <v>1231</v>
+        <v>1395</v>
       </c>
       <c r="E56" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B57" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="C57" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E57" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="B58" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C58" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="E58" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B59" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="C59" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="E59" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B60" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="C60" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E60" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B61" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="C61" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="E61" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B62" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="C62" t="s">
         <v>298</v>
       </c>
       <c r="E62" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B63" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="C63" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="E63" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B64" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C64" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E64" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B65" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="C65" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="E65" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="B66" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="C66" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="E66" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B67" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="C67" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="E67" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B68" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C68" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="E68" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B69" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="C69" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="E69" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B70" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="C70" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="E70" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B71" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C71" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="E71" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B72" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="C72" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="E72" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B73" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="C73" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="E73" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -6817,8 +6819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784A91B8-D9E3-4965-BD86-885AA4D02B42}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6849,333 +6851,333 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B2" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D2" t="s">
         <v>587</v>
       </c>
       <c r="E2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D3" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E3" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C4" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D4" t="s">
         <v>587</v>
       </c>
       <c r="E4" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B5" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D5" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E5" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C6" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D6" t="s">
         <v>587</v>
       </c>
       <c r="E6" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B7" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C7" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D7" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="E7" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B8" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C8" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D8" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="E8" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B9" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C9" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D9" t="s">
         <v>587</v>
       </c>
       <c r="E9" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B10" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C10" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D10" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E10" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B11" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C11" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D11" t="s">
         <v>587</v>
       </c>
       <c r="E11" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B12" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C12" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D12" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E12" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B13" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C13" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D13" t="s">
         <v>587</v>
       </c>
       <c r="E13" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B14" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C14" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D14" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E14" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B15" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C15" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D15" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E15" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B16" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C16" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D16" t="s">
         <v>587</v>
       </c>
       <c r="E16" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B17" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C17" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D17" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="E17" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B18" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C18" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D18" t="s">
         <v>587</v>
       </c>
       <c r="E18" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B19" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C19" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D19" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E19" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B20" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C20" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D20" t="s">
         <v>587</v>
       </c>
       <c r="E20" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B21" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C21" t="s">
         <v>346</v>
@@ -7184,117 +7186,117 @@
         <v>666</v>
       </c>
       <c r="E21" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B22" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C22" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D22" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="E22" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B23" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C23" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D23" t="s">
         <v>587</v>
       </c>
       <c r="E23" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B24" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C24" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D24" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E24" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B25" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C25" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D25" t="s">
         <v>587</v>
       </c>
       <c r="E25" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B26" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C26" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="D26" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E26" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B27" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C27" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D27" t="s">
         <v>587</v>
       </c>
       <c r="E27" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B28" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C28" t="s">
         <v>265</v>
@@ -7303,717 +7305,717 @@
         <v>635</v>
       </c>
       <c r="E28" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B29" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C29" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D29" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="E29" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B30" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C30" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D30" t="s">
         <v>587</v>
       </c>
       <c r="E30" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B31" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C31" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D31" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="E31" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B32" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C32" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D32" t="s">
         <v>587</v>
       </c>
       <c r="E32" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B33" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C33" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D33" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E33" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B34" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C34" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D34" t="s">
         <v>587</v>
       </c>
       <c r="E34" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B35" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C35" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D35" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="E35" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B36" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C36" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D36" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="E36" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B37" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C37" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D37" t="s">
         <v>587</v>
       </c>
       <c r="E37" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B38" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C38" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D38" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E38" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B39" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C39" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D39" t="s">
         <v>587</v>
       </c>
       <c r="E39" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B40" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C40" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D40" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="E40" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B41" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C41" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D41" t="s">
         <v>587</v>
       </c>
       <c r="E41" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B42" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C42" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D42" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="E42" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B43" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C43" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D43" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="E43" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B44" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C44" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D44" t="s">
         <v>587</v>
       </c>
       <c r="E44" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B45" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C45" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D45" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E45" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B46" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C46" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D46" t="s">
         <v>587</v>
       </c>
       <c r="E46" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B47" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C47" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D47" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="E47" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B48" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C48" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D48" t="s">
         <v>587</v>
       </c>
       <c r="E48" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B49" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C49" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D49" t="s">
         <v>666</v>
       </c>
       <c r="E49" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B50" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C50" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D50" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E50" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="B51" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="C51" t="s">
         <v>292</v>
       </c>
       <c r="E51" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="B52" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="C52" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="E52" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="B53" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C53" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="E53" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="B54" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="C54" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="E54" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="B55" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C55" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="E55" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="B56" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="C56" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="E56" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="B57" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C57" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="E57" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="B58" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C58" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E58" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="B59" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C59" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="E59" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="B60" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="C60" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="E60" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="B61" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C61" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="E61" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="B62" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="C62" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="E62" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="B63" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="C63" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="E63" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="B64" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="C64" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="E64" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="B65" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C65" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="E65" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="B66" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="C66" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="E66" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B67" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="C67" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="E67" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="B68" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C68" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="E68" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="B69" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="C69" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="E69" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="B70" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="C70" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="E70" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="B71" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="C71" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="E71" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="B72" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="C72" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="E72" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="B73" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="C73" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="E73" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="B74" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="C74" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="E74" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -8026,8 +8028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E592E6E-D4AF-4599-A837-21225B7BE7FB}">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8058,1188 +8060,1188 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D2" t="s">
         <v>587</v>
       </c>
       <c r="E2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B3" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C3" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="D3" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="E3" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B4" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C4" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D4" t="s">
         <v>587</v>
       </c>
       <c r="E4" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C5" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D5" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E5" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B6" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C6" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D6" t="s">
         <v>587</v>
       </c>
       <c r="E6" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B7" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C7" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="D7" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E7" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B8" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C8" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D8" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E8" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B9" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C9" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D9" t="s">
         <v>587</v>
       </c>
       <c r="E9" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B10" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C10" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D10" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E10" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B11" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C11" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D11" t="s">
         <v>587</v>
       </c>
       <c r="E11" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B12" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C12" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D12" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E12" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B13" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C13" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="D13" t="s">
         <v>587</v>
       </c>
       <c r="E13" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B14" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C14" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D14" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="E14" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B15" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C15" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D15" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="E15" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B16" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C16" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D16" t="s">
         <v>587</v>
       </c>
       <c r="E16" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C17" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D17" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="E17" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B18" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C18" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="D18" t="s">
         <v>587</v>
       </c>
       <c r="E18" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B19" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C19" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D19" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E19" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B20" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C20" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D20" t="s">
         <v>587</v>
       </c>
       <c r="E20" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B21" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C21" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D21" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E21" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B22" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C22" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D22" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="E22" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B23" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C23" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D23" t="s">
         <v>587</v>
       </c>
       <c r="E23" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B24" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C24" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D24" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="E24" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B25" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C25" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D25" t="s">
         <v>587</v>
       </c>
       <c r="E25" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B26" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C26" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D26" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="E26" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B27" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C27" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D27" t="s">
         <v>587</v>
       </c>
       <c r="E27" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B28" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C28" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D28" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="E28" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B29" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C29" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D29" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E29" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B30" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C30" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D30" t="s">
         <v>587</v>
       </c>
       <c r="E30" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B31" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C31" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D31" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E31" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B32" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C32" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D32" t="s">
         <v>587</v>
       </c>
       <c r="E32" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B33" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C33" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D33" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E33" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B34" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C34" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D34" t="s">
         <v>587</v>
       </c>
       <c r="E34" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B35" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C35" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D35" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E35" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B36" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C36" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D36" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E36" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B37" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C37" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D37" t="s">
         <v>587</v>
       </c>
       <c r="E37" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="B38" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C38" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="D38" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E38" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B39" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C39" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D39" t="s">
         <v>587</v>
       </c>
       <c r="E39" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B40" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C40" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D40" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="E40" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="B41" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C41" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D41" t="s">
         <v>587</v>
       </c>
       <c r="E41" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B42" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C42" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D42" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="E42" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B43" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C43" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D43" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E43" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B44" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C44" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D44" t="s">
         <v>587</v>
       </c>
       <c r="E44" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B45" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C45" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D45" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="E45" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B46" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C46" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D46" t="s">
         <v>587</v>
       </c>
       <c r="E46" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="B47" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C47" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D47" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="E47" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B48" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C48" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D48" t="s">
         <v>587</v>
       </c>
       <c r="E48" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B49" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C49" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D49" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E49" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B50" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C50" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D50" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E50" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B51" t="s">
+        <v>932</v>
+      </c>
+      <c r="C51" t="s">
+        <v>952</v>
+      </c>
+      <c r="D51" t="s">
+        <v>587</v>
+      </c>
+      <c r="E51" t="s">
         <v>1111</v>
-      </c>
-      <c r="B51" t="s">
-        <v>934</v>
-      </c>
-      <c r="C51" t="s">
-        <v>954</v>
-      </c>
-      <c r="D51" t="s">
-        <v>587</v>
-      </c>
-      <c r="E51" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="B52" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="C52" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="E52" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="B53" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C53" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="E53" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="B54" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="C54" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="E54" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="B55" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="C55" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E55" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="B56" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="C56" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="E56" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="B57" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="C57" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="E57" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="B58" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="C58" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="E58" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="B59" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="C59" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="E59" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="B60" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="C60" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="E60" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="B61" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="C61" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="E61" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="B62" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="C62" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="E62" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="B63" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="C63" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="E63" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="B64" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="C64" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="E64" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="B65" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="C65" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="E65" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="B66" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="C66" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="E66" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="B67" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="C67" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="E67" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="B68" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="C68" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="E68" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="B69" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="C69" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="E69" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="B70" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="C70" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="E70" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="B71" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="C71" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="E71" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="B72" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="C72" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="E72" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="B73" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="C73" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="E73" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="B74" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="C74" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="E74" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="B75" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="C75" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="E75" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -9252,8 +9254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08EDFA95-C048-4C2A-AD16-5BEA4DE59DC5}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:E32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -9749,10 +9751,10 @@
         <v>687</v>
       </c>
       <c r="C29" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E29" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
@@ -9763,10 +9765,10 @@
         <v>688</v>
       </c>
       <c r="C30" t="s">
+        <v>690</v>
+      </c>
+      <c r="E30" t="s">
         <v>691</v>
-      </c>
-      <c r="E30" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
@@ -9774,27 +9776,27 @@
         <v>685</v>
       </c>
       <c r="B31" t="s">
-        <v>689</v>
+        <v>1396</v>
       </c>
       <c r="C31" t="s">
-        <v>692</v>
+        <v>1397</v>
       </c>
       <c r="E31" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
+        <v>692</v>
+      </c>
+      <c r="B32" t="s">
+        <v>693</v>
+      </c>
+      <c r="C32" t="s">
         <v>694</v>
       </c>
-      <c r="B32" t="s">
+      <c r="E32" t="s">
         <v>695</v>
-      </c>
-      <c r="C32" t="s">
-        <v>696</v>
-      </c>
-      <c r="E32" t="s">
-        <v>697</v>
       </c>
     </row>
   </sheetData>
